--- a/CSV/simple_workbook.xlsx
+++ b/CSV/simple_workbook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>John Doe</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Tom Ford</t>
+  </si>
+  <si>
+    <t>Avg. Age</t>
   </si>
 </sst>
 </file>
@@ -357,13 +360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -371,7 +374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -379,7 +382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -387,12 +390,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="B5">
+        <f>AVERAGE(B1:B4)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
